--- a/0_Datasets/Data2020/Region/clean_data/regngrad_2020_clean.xlsx
+++ b/0_Datasets/Data2020/Region/clean_data/regngrad_2020_clean.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AGK21"/>
+  <dimension ref="A1:AGM21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4777,6 +4777,16 @@
       <c r="AGK1" s="1" t="inlineStr">
         <is>
           <t>Region 2018 Graduates: RHSP/DAP or FHSP-E/FHSP-DLA At Risk %</t>
+        </is>
+      </c>
+      <c r="AGL1" s="1" t="inlineStr">
+        <is>
+          <t>REGION</t>
+        </is>
+      </c>
+      <c r="AGM1" s="1" t="inlineStr">
+        <is>
+          <t>REGNNAME</t>
         </is>
       </c>
     </row>
@@ -7250,6 +7260,16 @@
       <c r="AGK2" t="n">
         <v>88.09999999999999</v>
       </c>
+      <c r="AGL2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AGM2" t="inlineStr">
+        <is>
+          <t>REGION 01: EDINBURG</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -9696,6 +9716,16 @@
       </c>
       <c r="AGK3" t="n">
         <v>69</v>
+      </c>
+      <c r="AGL3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AGM3" t="inlineStr">
+        <is>
+          <t>REGION 02: CORPUS CHRISTI</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -12100,6 +12130,16 @@
       <c r="AGK4" t="n">
         <v>72.90000000000001</v>
       </c>
+      <c r="AGL4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AGM4" t="inlineStr">
+        <is>
+          <t>REGION 03: VICTORIA</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -14662,6 +14702,16 @@
       </c>
       <c r="AGK5" t="n">
         <v>75.3</v>
+      </c>
+      <c r="AGL5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AGM5" t="inlineStr">
+        <is>
+          <t>REGION 04: HOUSTON</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -17191,6 +17241,16 @@
       </c>
       <c r="AGK6" t="n">
         <v>75.8</v>
+      </c>
+      <c r="AGL6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AGM6" t="inlineStr">
+        <is>
+          <t>REGION 05: BEAUMONT</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -19657,6 +19717,16 @@
       <c r="AGK7" t="n">
         <v>78.3</v>
       </c>
+      <c r="AGL7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AGM7" t="inlineStr">
+        <is>
+          <t>REGION 06: HUNTSVILLE</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -22131,6 +22201,16 @@
       </c>
       <c r="AGK8" t="n">
         <v>77.7</v>
+      </c>
+      <c r="AGL8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AGM8" t="inlineStr">
+        <is>
+          <t>REGION 07: KILGORE</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -24540,6 +24620,16 @@
       </c>
       <c r="AGK9" t="n">
         <v>68</v>
+      </c>
+      <c r="AGL9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AGM9" t="inlineStr">
+        <is>
+          <t>REGION 08: MT PLEASANT</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -26946,6 +27036,16 @@
       <c r="AGK10" t="n">
         <v>70.7</v>
       </c>
+      <c r="AGL10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AGM10" t="inlineStr">
+        <is>
+          <t>REGION 09: WICHITA FALLS</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -29497,6 +29597,16 @@
       <c r="AGK11" t="n">
         <v>71</v>
       </c>
+      <c r="AGL11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AGM11" t="inlineStr">
+        <is>
+          <t>REGION 10: RICHARDSON</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -32049,6 +32159,16 @@
       </c>
       <c r="AGK12" t="n">
         <v>71.59999999999999</v>
+      </c>
+      <c r="AGL12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AGM12" t="inlineStr">
+        <is>
+          <t>REGION 11: FORT WORTH</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -34555,6 +34675,16 @@
       <c r="AGK13" t="n">
         <v>71.90000000000001</v>
       </c>
+      <c r="AGL13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AGM13" t="inlineStr">
+        <is>
+          <t>REGION 12: WACO</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -37093,6 +37223,16 @@
       </c>
       <c r="AGK14" t="n">
         <v>76.3</v>
+      </c>
+      <c r="AGL14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="AGM14" t="inlineStr">
+        <is>
+          <t>REGION 13: AUSTIN</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -39503,6 +39643,16 @@
       <c r="AGK15" t="n">
         <v>84.2</v>
       </c>
+      <c r="AGL15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="AGM15" t="inlineStr">
+        <is>
+          <t>REGION 14: ABILENE</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -41927,6 +42077,16 @@
       </c>
       <c r="AGK16" t="n">
         <v>75</v>
+      </c>
+      <c r="AGL16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AGM16" t="inlineStr">
+        <is>
+          <t>REGION 15: SAN ANGELO</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -44342,6 +44502,16 @@
       </c>
       <c r="AGK17" t="n">
         <v>73.5</v>
+      </c>
+      <c r="AGL17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AGM17" t="inlineStr">
+        <is>
+          <t>REGION 16: AMARILLO</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -46760,6 +46930,16 @@
       <c r="AGK18" t="n">
         <v>74.7</v>
       </c>
+      <c r="AGL18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="AGM18" t="inlineStr">
+        <is>
+          <t>REGION 17: LUBBOCK</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -49230,6 +49410,16 @@
       </c>
       <c r="AGK19" t="n">
         <v>69.5</v>
+      </c>
+      <c r="AGL19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AGM19" t="inlineStr">
+        <is>
+          <t>REGION 18: MIDLAND</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -51718,6 +51908,16 @@
       <c r="AGK20" t="n">
         <v>88.90000000000001</v>
       </c>
+      <c r="AGL20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="AGM20" t="inlineStr">
+        <is>
+          <t>REGION 19: EL PASO</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -54257,6 +54457,16 @@
       <c r="AGK21" t="n">
         <v>70.40000000000001</v>
       </c>
+      <c r="AGL21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AGM21" t="inlineStr">
+        <is>
+          <t>REGION 20: SAN ANTONIO</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
